--- a/YunQi1.7/YunQi/YunQiERP/wwwroot/xlsx/出貨資料匯入檔.xlsx
+++ b/YunQi1.7/YunQi/YunQiERP/wwwroot/xlsx/出貨資料匯入檔.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>託運人</t>
   </si>
@@ -210,6 +210,376 @@
   </si>
   <si>
     <t>中國信託ATM</t>
+  </si>
+  <si>
+    <t>邱永賢</t>
+  </si>
+  <si>
+    <t>台中市北屯區中平路1151號6樓</t>
+  </si>
+  <si>
+    <t>0903816888</t>
+  </si>
+  <si>
+    <t>S201904190202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H01-耀岩黑情侶錶.男生.黑錶盤白色 X 1
+H01-耀岩黑情侶錶.女生.黑錶盤白色 X 1
+古巴噴霧型雪茄香水.標準.標準 X 1
+玫瑰金鑲鑽手鐲.標準.小 X 1
+汽車品牌鑰匙扣(短版).無標.黑白色 X 1
+汽車品牌鑰匙扣(短版).日產.黑紅色 X 1
+汽車品牌鑰匙扣(短版).瑪莎拉蒂.黑色 X 1
+汽車品牌鑰匙扣(短版).本田.紫色 X 1
+汽車品牌鑰匙扣(短版).奧迪.黑白色 X 1
+汽車品牌鑰匙扣(短版).現代.棕色 X 1
+汽車品牌鑰匙扣(短版).寶馬.黑白色 X 1
+汽車品牌鑰匙扣(短版).凌志.黑白色 X 1
+汽車品牌鑰匙扣(短版).豐田.紫色 X 1
+汽車品牌鑰匙扣(短版).賓士.黑白色 X 1
+汽車品牌鑰匙扣(短版).賓士.黑紅色 X 1
+汽車品牌鑰匙扣(長版).賓士.紅色 X 1
+汽車品牌鑰匙扣(長版).奧迪.黑色 X 1
+汽車品牌鑰匙扣(長版).凌志.黑色 X 1
+汽車品牌鑰匙扣(長版).馬自達.黑色 X 1
+汽車品牌鑰匙扣(長版).豐田.黑色 X 1
+汽車品牌鑰匙扣(長版).本田.黑色 X 1
+汽車品牌鑰匙扣(長版).日產.黑色 X 1
+汽車品牌鑰匙扣(長版).三菱.黑色 X 1
+汽車品牌鑰匙扣(長版).寶馬.黑色 X 1
+鬥牛犬車裝香水座.標準.B粉耳 X 1
+鬥牛犬車裝香水座.標準.D純黑 X 1
+鬥牛犬車裝香水座.標準.G金色 X 1
+法鬥吊飾.標準.黑色 X 1
+法鬥吊飾.標準.紅色 X 1
+法鬥吊飾.標準.粉紅色 X 1
+法鬥吊飾.標準.玫金色 X 1
+法鬥吊飾.標準.金色 X 1
+法鬥吊飾.標準.咖啡色 X 1
+</t>
+  </si>
+  <si>
+    <t>馬士穎</t>
+  </si>
+  <si>
+    <t>台中市北屯區經貿5路66號6樓</t>
+  </si>
+  <si>
+    <t>S201904190203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01-星空時尚手錶.標準.自然咖 X 1
+A09-鏤空質感時尚錶.標準.時尚黑 X 1
+B02-七彩發光機械果凍錶.標準.黑色 X 1
+B02-七彩發光機械果凍錶.標準.白色 X 1
+D01-新式數位顯像電子錶.標準.銀色男款 X 1
+D01-新式數位顯像電子錶.標準.黑色男款 X 1
+多功能收納腰腿包.標準.軍綠色 X 1
+富光質感雙層玻璃水杯.標準.黑色 X 1
+十二星座月亮項鍊.標準.天蠍 X 1
+汽車品牌鑰匙扣(短版).瑪莎拉蒂.黑色 X 1
+汽車品牌鑰匙扣(短版).寶馬.黑白色 X 1
+汽車品牌鑰匙扣(短版).寶馬.棕色 X 1
+汽車品牌鑰匙扣(長版).賓士.黑色 X 1
+汽車品牌鑰匙扣(長版).賓士.黑白色 X 1
+橫紋首飾盒.標準.標準 X 1
+</t>
+  </si>
+  <si>
+    <t>超商代碼繳款</t>
+  </si>
+  <si>
+    <t>S201904200201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B01-七色夜光手錶.標準.黑色 X 1
+B01-七色夜光手錶.標準.白色 X 1
+D01-新式數位顯像電子錶.標準.銀色男款 X 1
+多功能收納腰腿包.標準.黑色 X 1
+十二星座月亮項鍊.標準.天秤 X 1
+玫瑰金鑲鑽手鐲.標準.大 X 1
+玫瑰金鑲鑽手鐲.標準.小 X 1
+汽車品牌鑰匙扣(短版).豐田.黑色 X 1
+法鬥吊飾.標準.黑色 X 1
+法鬥吊飾.標準.紅色 X 1
+法鬥吊飾.標準.粉紅色 X 1
+法鬥吊飾.標準.玫金色 X 1
+法鬥吊飾.標準.金色 X 1
+法鬥吊飾.標準.咖啡色 X 1
+</t>
+  </si>
+  <si>
+    <t>邱妍婕</t>
+  </si>
+  <si>
+    <t>北屯區中平路1151號6樓</t>
+  </si>
+  <si>
+    <t>0906111950</t>
+  </si>
+  <si>
+    <t>S201904200202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歐式皮革質感面紙盒.標準.黑色 X 1
+歐式皮革質感面紙盒.標準.咖啡色 X 1
+汽車品牌鑰匙扣(短版).賓士.黑白色 X 1
+汽車品牌鑰匙扣(短版).賓士.黑紅色 X 1
+鬥牛犬車裝香水座.標準.B粉耳 X 1
+鬥牛犬車裝香水座.標準.D純黑 X 1
+法鬥吊飾.標準.黑色 X 1
+法鬥吊飾.標準.粉紅色 X 1
+橫紋首飾盒.標準.標準 X 3
+車標面紙盒.標準.寶馬 X 3
+車標面紙盒.標準.賓士 X 2
+中指貓棉被.標準.標準 X 1
+</t>
+  </si>
+  <si>
+    <t>kaicheng</t>
+  </si>
+  <si>
+    <t>0985024654</t>
+  </si>
+  <si>
+    <t>S201904210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J01-紙手錶.標準.A款 X 1
+</t>
+  </si>
+  <si>
+    <t>台北富邦ATM</t>
+  </si>
+  <si>
+    <t>婕</t>
+  </si>
+  <si>
+    <t>彰化縣伸港鄉大同十街232號</t>
+  </si>
+  <si>
+    <t>S201904220201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B01-七色夜光手錶.標準.黑色 X 1
+金派鳥男士內褲.XL.A款 X 2
+金派鳥男士內褲.XL.B款 X 2
+金派鳥男士內褲.XL.C款 X 2
+金派鳥男士內褲.XL.D款 X 3
+金派鳥男士內褲.2XL.A款 X 1
+金派鳥男士內褲.2XL.C款 X 2
+金派鳥男士內褲.2XL.D款 X 1
+金派鳥男士內褲.3XL.C款 X 2
+金派鳥男士內褲.3XL.D款 X 1
+</t>
+  </si>
+  <si>
+    <t>乃美伶</t>
+  </si>
+  <si>
+    <t>台中市西區精誠二十四街5號3樓之21</t>
+  </si>
+  <si>
+    <t>0973622910</t>
+  </si>
+  <si>
+    <t>S201904220202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01-星空時尚手錶.標準.高雅紫 X 1
+A08-質感時尚黑盤錶.標準.黑色 X 1
+A08-質感時尚黑盤錶.標準.棕色 X 1
+D01-新式數位顯像電子錶.標準.銀色女款 X 1
+F02-簡約銀帶錶.標準.白色男款 X 1
+F02-簡約銀帶錶.標準.白色女款 X 1
+迷你桌面吸塵器.標準.粉色 X 1
+玫瑰金鑲鑽手鐲.標準.大 X 1
+汽車品牌鑰匙扣(短版).瑪莎拉蒂.黑色 X 1
+汽車品牌鑰匙扣(短版).瑪莎拉蒂.黑白色 X 1
+汽車品牌鑰匙扣(短版).寶馬.黑白色 X 1
+汽車品牌鑰匙扣(短版).賓士.黑色 X 1
+汽車品牌鑰匙扣(短版).賓士.黑白色 X 1
+汽車品牌鑰匙扣(長版).寶馬.黑色 X 1
+老司機專用夜視鏡.標準.金框 X 1
+狗頭字母短袖上衣.XL.黑色 X 1
+</t>
+  </si>
+  <si>
+    <t>S201904220203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A06-磁性星空女士錶.標準.氣質米 X 1
+B02-七彩發光機械果凍錶.標準.黑色 X 1
+B02-七彩發光機械果凍錶.標準.白色 X 1
+變形金剛手機架.標準.粉色 X 1
+汽車品牌鑰匙扣(短版).無標.黑紅色 X 1
+鬥牛犬車裝香水座.標準.D純黑 X 1
+鬥牛犬車裝香水座.標準.G金色 X 1
+橫紋首飾盒.標準.標準 X 1
+車標面紙盒.標準.寶馬 X 1
+車標面紙盒.標準.賓士 X 1
+中指貓棉被.標準.標準 X 1
+</t>
+  </si>
+  <si>
+    <t>S201904250201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01-星空時尚手錶.標準.時尚黑 X 1
+A08-質感時尚黑盤錶.標準.紫色 X 1
+太空球加濕器.標準.白色 X 1
+太空球加濕器.標準.粉色 X 1
+多功能收納腰腿包.標準.卡其色 X 1
+變形金剛手機架.標準.金色 X 1
+變形金剛手機架.標準.銀色 X 1
+汽車品牌鑰匙扣(短版).豐田.棕色 X 1
+汽車品牌鑰匙扣(長版).奧迪.黑色 X 1
+汽車品牌鑰匙扣(長版).寶馬.黑色 X 1
+質感金邊太陽眼鏡盒.標準.灰色 X 1
+十二星座手鍊.標準.金牛座 X 1
+單鑽鏤空手鍊.標準.玫金色 X 1
+CK內褲.L.標準 X 1
+CK內褲.XL.標準 X 1
+</t>
+  </si>
+  <si>
+    <t>S201904270201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D01-新式數位顯像電子錶.標準.黑色女款 X 1
+歐式皮革質感面紙盒.標準.咖啡色 X 1
+變形金剛手機架.標準.金色 X 1
+鬥牛犬車裝香水座.標準.F銀色 X 1
+橫紋首飾盒.標準.標準 X 1
+車標面紙盒.標準.寶馬 X 1
+格紋拖鞋.41.棕色 X 1
+格紋拖鞋.41.黑色 X 1
+格紋拖鞋.42.棕色 X 1
+格紋拖鞋.42.黑色 X 1
+格紋拖鞋.43.棕色 X 1
+格紋拖鞋.43.黑色 X 1
+</t>
+  </si>
+  <si>
+    <t>黃正富</t>
+  </si>
+  <si>
+    <t>彰化縣和美鎮鎮西路66巷13號</t>
+  </si>
+  <si>
+    <t>0982513882</t>
+  </si>
+  <si>
+    <t>S201904290201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瑞米格男士內褲.XL.A款(當作封面照) X 1
+瑞米格男士內褲.XL.E款 X 1
+鬥牛犬車裝香水座.標準.B粉耳 X 1
+鬥牛犬車裝香水座.標準.D純黑 X 1
+CK內褲.L.標準 X 2
+CK內褲.2XL.標準 X 1
+格紋拖鞋.40.棕色 X 1
+格紋拖鞋.40.黑色 X 1
+格紋拖鞋.41.黑色 X 1
+格紋拖鞋.42.棕色 X 1
+格紋拖鞋.43.棕色 X 1
+格紋拖鞋.44.棕色 X 1
+膠帶.標準.標準 X 1
+破壞袋32*45(霧面).32*45.霧面 X 1
+</t>
+  </si>
+  <si>
+    <t>S201904290202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D01-新式數位顯像電子錶.標準.黑色男款 X 1
+金派鳥男士內褲.3XL.B款 X 1
+金派鳥男士內褲.3XL.C款 X 1
+金派鳥男士內褲.3XL.D款 X 1
+玫瑰金鑲鑽手鐲.標準.小 X 1
+汽車品牌鑰匙扣(短版).寶馬.黑色 X 1
+汽車品牌鑰匙扣(短版).寶馬.黑白色 X 1
+汽車品牌鑰匙扣(長版).賓士.黑色 X 2
+汽車品牌鑰匙扣(長版).賓士.黑白色 X 1
+汽車品牌鑰匙扣(長版).寶馬.黑色 X 1
+格紋拖鞋.43.棕色 X 1
+格紋拖鞋.43.黑色 X 1
+</t>
+  </si>
+  <si>
+    <t>楊晴雯</t>
+  </si>
+  <si>
+    <t>新北市汐止區橫科路407巷25弄5號</t>
+  </si>
+  <si>
+    <t>0984255026</t>
+  </si>
+  <si>
+    <t>S201904290203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A08-質感時尚黑盤錶.標準.黑色 X 1
+歐式皮革質感面紙盒.標準.黑色 X 1
+多功能隨身神器.標準.個 X 1
+鬥牛犬車裝香水座.標準.A黑白耳 X 1
+鬥牛犬車裝香水座.標準.B粉耳 X 1
+門背式不鏽鋼掛衣架.標準.標準 X 2
+獨角獸手機支架.標準.紫色 X 1
+迷你投籃籃球組.標準.標準 X 1
+法鬥吊飾.標準.粉紅色 X 1
+中指貓棉被.標準.標準 X 1
+</t>
+  </si>
+  <si>
+    <t>鄭湘潔</t>
+  </si>
+  <si>
+    <t>高雄市大樹區學城路1段1號（義守大學鮮豆屋）</t>
+  </si>
+  <si>
+    <t>0986071370</t>
+  </si>
+  <si>
+    <t>S201904300201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漸變色耐熱磨砂玻璃水杯.標準.粉色 X 2
+漸變色耐熱磨砂玻璃水杯.標準.綠色 X 2
+漸變色耐熱磨砂玻璃水杯.標準.藍色 X 2
+迷你桌面吸塵器.標準.粉色 X 1
+迷你桌面吸塵器.標準.黑色 X 1
+迷你桌面吸塵器.標準.蘋果綠 X 1
+黑白十字鑽邊扣式手鐲.標準.黑色 X 2
+黑白十字鑽邊扣式手鐲.標準.白色 X 2
+環管單鑽手鍊.標準.標準 X 1
+3D鑽石滾輪按摩器.標準.標準 X 2
+獨角獸手機支架.標準.粉色 X 2
+獨角獸手機支架.標準.紫色 X 2
+矽藻土笑臉吸水杯墊.標準.標準 X 4
+</t>
+  </si>
+  <si>
+    <t>S201905010201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金派鳥男士內褲.XL.B款 X 1
+金派鳥男士內褲.XL.C款 X 1
+金派鳥男士內褲.2XL.A款 X 1
+金派鳥男士內褲.2XL.C款 X 1
+耶路王男士內褲.2XL.A款 X 1
+中指貓棉被.標準.標準 X 1
+CK內褲.L.標準 X 1
+格紋拖鞋.44.黑色 X 1
+女性救星神奇內褲.L.黑 X 1
+女性救星神奇內褲.L.膚色 X 1
+女性救星神奇內褲.2L.黑 X 1
+女性救星神奇內褲.2L.皮粉 X 1
+女性救星神奇內褲.4L.黑 X 1
+女性救星神奇內褲.4L.膚色 X 1
+</t>
   </si>
 </sst>
 </file>
@@ -252,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +634,51 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -630,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="XET1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="XFD2" sqref="A2:XFD1048576"/>
@@ -1022,6 +1437,531 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="24"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="25"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="26"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
